--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Edn3-Ednra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Edn3-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,7 +85,16 @@
     <t>Ednra</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.306396588970786</v>
+        <v>0.3157193333333333</v>
       </c>
       <c r="H2">
-        <v>0.306396588970786</v>
+        <v>0.9471579999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.6727695994447</v>
+        <v>1.373217333333334</v>
       </c>
       <c r="N2">
-        <v>25.6727695994447</v>
+        <v>4.119652</v>
       </c>
       <c r="O2">
-        <v>0.8434275402986229</v>
+        <v>0.04216891968544611</v>
       </c>
       <c r="P2">
-        <v>0.8434275402986229</v>
+        <v>0.04216891968544611</v>
       </c>
       <c r="Q2">
-        <v>7.866049034702747</v>
+        <v>0.4335512610017778</v>
       </c>
       <c r="R2">
-        <v>7.866049034702747</v>
+        <v>3.901961349016</v>
       </c>
       <c r="S2">
-        <v>0.8434275402986229</v>
+        <v>0.04216891968544611</v>
       </c>
       <c r="T2">
-        <v>0.8434275402986229</v>
+        <v>0.04216891968544611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,55 +593,241 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.3157193333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.9471579999999999</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>25.70216233333333</v>
+      </c>
+      <c r="N3">
+        <v>77.106487</v>
+      </c>
+      <c r="O3">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="P3">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="Q3">
+        <v>8.11466955710511</v>
+      </c>
+      <c r="R3">
+        <v>73.03202601394599</v>
+      </c>
+      <c r="S3">
+        <v>0.7892650295534415</v>
+      </c>
+      <c r="T3">
+        <v>0.7892650295534415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.306396588970786</v>
-      </c>
-      <c r="H3">
-        <v>0.306396588970786</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>4.76584945531729</v>
-      </c>
-      <c r="N3">
-        <v>4.76584945531729</v>
-      </c>
-      <c r="O3">
-        <v>0.1565724597013771</v>
-      </c>
-      <c r="P3">
-        <v>0.1565724597013771</v>
-      </c>
-      <c r="Q3">
-        <v>1.460240016657496</v>
-      </c>
-      <c r="R3">
-        <v>1.460240016657496</v>
-      </c>
-      <c r="S3">
-        <v>0.1565724597013771</v>
-      </c>
-      <c r="T3">
-        <v>0.1565724597013771</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.3157193333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.9471579999999999</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.08316866666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.249506</v>
+      </c>
+      <c r="O4">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="P4">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="Q4">
+        <v>0.02625795599422222</v>
+      </c>
+      <c r="R4">
+        <v>0.236321603948</v>
+      </c>
+      <c r="S4">
+        <v>0.00255395321620295</v>
+      </c>
+      <c r="T4">
+        <v>0.00255395321620295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3157193333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.9471579999999999</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1719393333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.515818</v>
+      </c>
+      <c r="O5">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="P5">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="Q5">
+        <v>0.05428457169377777</v>
+      </c>
+      <c r="R5">
+        <v>0.488561145244</v>
+      </c>
+      <c r="S5">
+        <v>0.005279933308519127</v>
+      </c>
+      <c r="T5">
+        <v>0.005279933308519127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3157193333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.9471579999999999</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.234191333333333</v>
+      </c>
+      <c r="N6">
+        <v>15.702574</v>
+      </c>
+      <c r="O6">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="P6">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="Q6">
+        <v>1.652535398299111</v>
+      </c>
+      <c r="R6">
+        <v>14.872818584692</v>
+      </c>
+      <c r="S6">
+        <v>0.1607321642363904</v>
+      </c>
+      <c r="T6">
+        <v>0.1607321642363904</v>
       </c>
     </row>
   </sheetData>
